--- a/aula11/relacao_dados.xlsx
+++ b/aula11/relacao_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno.tarde\Desktop\banco_dados_senai\aula11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0A1213-3C59-4E72-9A79-177A200D077A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB9B796-5995-4875-95F7-B343B0CAC52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD473F89-3B5B-424E-8601-33CEC398A463}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
   <si>
     <t>id_cliente</t>
   </si>
@@ -135,9 +135,6 @@
     <t>id_livro</t>
   </si>
   <si>
-    <t>nome_autor</t>
-  </si>
-  <si>
     <t>assunto</t>
   </si>
   <si>
@@ -162,194 +159,221 @@
     <t>id_editora</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>gerente</t>
+  </si>
+  <si>
+    <t>tbl_editora</t>
+  </si>
+  <si>
+    <t>entrada</t>
+  </si>
+  <si>
+    <t>saída</t>
+  </si>
+  <si>
+    <t>tbl_estoque</t>
+  </si>
+  <si>
+    <t>SISTEMA DE GESTÃO DE BANCO DE DADOS DE LIVRARIA</t>
+  </si>
+  <si>
+    <t>Rua Cinco</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>99099-999</t>
+  </si>
+  <si>
+    <t>Rua da Loucura</t>
+  </si>
+  <si>
+    <t>Setor Oeste</t>
+  </si>
+  <si>
+    <t>Goiânia</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>56561-999</t>
+  </si>
+  <si>
+    <t>Vai quem Quer</t>
+  </si>
+  <si>
+    <t>Rio Branco</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>78945-632</t>
+  </si>
+  <si>
+    <t>Avenida Beira-mar</t>
+  </si>
+  <si>
+    <t>Iracema</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>12345-678</t>
+  </si>
+  <si>
+    <t>A revolução dos bichos</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Sátira Política</t>
+  </si>
+  <si>
+    <t>978-85-359-0277-8</t>
+  </si>
+  <si>
+    <t>Distopia</t>
+  </si>
+  <si>
+    <t>978-85-510-0323-1</t>
+  </si>
+  <si>
+    <t>Dom Quixote</t>
+  </si>
+  <si>
+    <t>Miguel de Cervantes</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>978-85-325-1987-7</t>
+  </si>
+  <si>
+    <t>Cem Anos de Solidão</t>
+  </si>
+  <si>
+    <t>Realismo mágico</t>
+  </si>
+  <si>
+    <t>O Senhor dos Anéis: A Sociedade do Anel</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkien</t>
+  </si>
+  <si>
+    <t>978-85-359-0938-8</t>
+  </si>
+  <si>
+    <t>Fantasia</t>
+  </si>
+  <si>
+    <t>Penguin Random House</t>
+  </si>
+  <si>
+    <t>HarperCollins</t>
+  </si>
+  <si>
+    <t>Simon &amp; Schuster</t>
+  </si>
+  <si>
+    <t>Hachette Livre</t>
+  </si>
+  <si>
+    <t>penguin@email.com</t>
+  </si>
+  <si>
+    <t>simon@email.com</t>
+  </si>
+  <si>
+    <t>hachette@email.com</t>
+  </si>
+  <si>
+    <t>harper@email.com</t>
+  </si>
+  <si>
+    <t>Macmillan Publishers</t>
+  </si>
+  <si>
+    <t>macmillan@email.com</t>
+  </si>
+  <si>
+    <t>Marco Paulo</t>
+  </si>
+  <si>
+    <t>Lida Maria</t>
+  </si>
+  <si>
+    <t>Josina Pereira</t>
+  </si>
+  <si>
+    <t>Martha Colins</t>
+  </si>
+  <si>
+    <t>Andre Phill</t>
+  </si>
+  <si>
+    <t>total_estoque</t>
+  </si>
+  <si>
+    <t>endereco</t>
+  </si>
+  <si>
+    <t>id_autor</t>
+  </si>
+  <si>
+    <t>nacionalidade</t>
+  </si>
+  <si>
+    <t>tbl_autor</t>
+  </si>
+  <si>
+    <t>Britânico</t>
+  </si>
+  <si>
+    <t>Espanhol</t>
+  </si>
+  <si>
+    <t>Gabirel Garcia Márquez</t>
+  </si>
+  <si>
+    <t>Colombiano</t>
+  </si>
+  <si>
     <t>telefone</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>gerente</t>
-  </si>
-  <si>
-    <t>tbl_editora</t>
-  </si>
-  <si>
-    <t>entrada</t>
-  </si>
-  <si>
-    <t>saída</t>
-  </si>
-  <si>
-    <t>tbl_estoque</t>
-  </si>
-  <si>
-    <t>SISTEMA DE GESTÃO DE BANCO DE DADOS DE LIVRARIA</t>
-  </si>
-  <si>
-    <t>Rua Cinco</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>99099-999</t>
-  </si>
-  <si>
-    <t>Rua da Loucura</t>
-  </si>
-  <si>
-    <t>Setor Oeste</t>
-  </si>
-  <si>
-    <t>Goiânia</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>56561-999</t>
-  </si>
-  <si>
-    <t>Vai quem Quer</t>
-  </si>
-  <si>
-    <t>Rio Branco</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>78945-632</t>
-  </si>
-  <si>
-    <t>Avenida Beira-mar</t>
-  </si>
-  <si>
-    <t>Iracema</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>12345-678</t>
-  </si>
-  <si>
-    <t>A revolução dos bichos</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Sátira Política</t>
-  </si>
-  <si>
-    <t>978-85-359-0277-8</t>
-  </si>
-  <si>
-    <t>Distopia</t>
-  </si>
-  <si>
-    <t>978-85-510-0323-1</t>
-  </si>
-  <si>
-    <t>Dom Quixote</t>
-  </si>
-  <si>
-    <t>Miguel de Cervantes</t>
-  </si>
-  <si>
-    <t>Romance</t>
-  </si>
-  <si>
-    <t>978-85-325-1987-7</t>
-  </si>
-  <si>
-    <t>Cem Anos de Solidão</t>
-  </si>
-  <si>
-    <t>Gabriel García Márquez</t>
-  </si>
-  <si>
-    <t>Realismo mágico</t>
-  </si>
-  <si>
-    <t>O Senhor dos Anéis: A Sociedade do Anel</t>
-  </si>
-  <si>
-    <t>J.R.R. Tolkien</t>
-  </si>
-  <si>
-    <t>978-85-359-0938-8</t>
-  </si>
-  <si>
-    <t>Fantasia</t>
-  </si>
-  <si>
-    <t>Penguin Random House</t>
-  </si>
-  <si>
-    <t>HarperCollins</t>
-  </si>
-  <si>
-    <t>Simon &amp; Schuster</t>
-  </si>
-  <si>
-    <t>Hachette Livre</t>
-  </si>
-  <si>
-    <t>penguin@email.com</t>
-  </si>
-  <si>
-    <t>simon@email.com</t>
-  </si>
-  <si>
-    <t>hachette@email.com</t>
-  </si>
-  <si>
-    <t>harper@email.com</t>
-  </si>
-  <si>
-    <t>Macmillan Publishers</t>
-  </si>
-  <si>
-    <t>macmillan@email.com</t>
-  </si>
-  <si>
-    <t>Marco Paulo</t>
-  </si>
-  <si>
-    <t>Lida Maria</t>
-  </si>
-  <si>
-    <t>Josina Pereira</t>
-  </si>
-  <si>
-    <t>Martha Colins</t>
-  </si>
-  <si>
-    <t>Andre Phill</t>
-  </si>
-  <si>
-    <t>id_estoquie</t>
-  </si>
-  <si>
-    <t>total_estoque</t>
+    <t>Rua Azul</t>
+  </si>
+  <si>
+    <t>Avenida Lilás</t>
+  </si>
+  <si>
+    <t>id_estoque</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +400,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -397,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -433,11 +463,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,622 +514,37 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="59">
     <dxf>
       <font>
         <b val="0"/>
@@ -1100,7 +569,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1109,13 +578,12 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1172,6 +640,123 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1249,6 +834,157 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1326,7 +1062,105 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1371,23 +1205,186 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1425,30 +1422,30 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1486,6 +1483,103 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
@@ -1528,6 +1622,317 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
@@ -1570,6 +1975,138 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
@@ -1665,12 +2202,14 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1704,9 +2243,7 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1742,213 +2279,41 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1964,39 +2329,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB72A126-C61B-4DAE-BBB5-E2D4F5FAD385}" name="Tabela1" displayName="Tabela1" ref="A4:C9" totalsRowShown="0" headerRowDxfId="38" dataDxfId="49">
-  <autoFilter ref="A4:C9" xr:uid="{DB72A126-C61B-4DAE-BBB5-E2D4F5FAD385}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB72A126-C61B-4DAE-BBB5-E2D4F5FAD385}" name="Tabela1" displayName="Tabela1" ref="A4:E9" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A4:E9" xr:uid="{DB72A126-C61B-4DAE-BBB5-E2D4F5FAD385}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A1B632B7-0824-427B-9504-1BE659BDDE03}" name="id_cliente" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{AB5E6CB1-C183-4FA7-93A6-A3D0C86256A7}" name="nome" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{798615A5-5715-4E07-A4C9-69F3E5D3CDB6}" name="CPF" dataDxfId="43"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A1B632B7-0824-427B-9504-1BE659BDDE03}" name="id_cliente" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{AB5E6CB1-C183-4FA7-93A6-A3D0C86256A7}" name="nome" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{798615A5-5715-4E07-A4C9-69F3E5D3CDB6}" name="CPF" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{1521F22B-A4D4-4EC1-903C-2C53C27DA145}" name="id_contato_cliente" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A7D64D56-0CBF-45C1-B8D1-8C57C0F23C9B}" name="id_endereco_cliente" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20EBEADD-E0EF-484A-BAA0-C2A8F2E17EEA}" name="Tabela2" displayName="Tabela2" ref="A12:C17" totalsRowShown="0" headerRowDxfId="36" dataDxfId="48" headerRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20EBEADD-E0EF-484A-BAA0-C2A8F2E17EEA}" name="Tabela2" displayName="Tabela2" ref="A12:C17" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52">
   <autoFilter ref="A12:C17" xr:uid="{20EBEADD-E0EF-484A-BAA0-C2A8F2E17EEA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1C314440-5882-455E-8FCE-5635DE81F4B5}" name="id_contato_cliente" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{24EE34F9-0E66-47D0-AD80-ACB8586F48FB}" name="telefone_pessoal" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{2CF06135-B5FE-49E5-9ED6-5201D38BA2AC}" name="telefone_residencial" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{1C314440-5882-455E-8FCE-5635DE81F4B5}" name="id_contato_cliente" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{24EE34F9-0E66-47D0-AD80-ACB8586F48FB}" name="telefone_pessoal" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{2CF06135-B5FE-49E5-9ED6-5201D38BA2AC}" name="telefone_residencial" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D516542B-6009-4266-B01D-A423B5A9BFBF}" name="Tabela3" displayName="Tabela3" ref="A20:H25" totalsRowShown="0" headerRowDxfId="34" dataDxfId="47" headerRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D516542B-6009-4266-B01D-A423B5A9BFBF}" name="Tabela3" displayName="Tabela3" ref="A20:H25" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46">
   <autoFilter ref="A20:H25" xr:uid="{D516542B-6009-4266-B01D-A423B5A9BFBF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2008,21 +2377,21 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EC5ACD2C-67AE-4DA6-84E5-5B3BA395CB2A}" name="id_endereco_cliente" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{54378415-E522-455A-9505-1E13203AD01F}" name="logradouro" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{0E6CD790-D796-4003-8B95-0A5C9F9C1B2F}" name="numero" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{F6978E98-5945-4867-AC61-0F25E859B6A3}" name="complemento" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{4A8D4879-B2DE-4415-87CE-5351A2430639}" name="bairro" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{0F18A217-6E1D-4700-AA01-D345312A4BF4}" name="cidade" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{2F839CBD-7306-42C9-8B25-92998D61AFEF}" name="UF" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{7D303E6A-EE0B-4AF2-9243-E6D12713CF83}" name="CEP" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{EC5ACD2C-67AE-4DA6-84E5-5B3BA395CB2A}" name="id_endereco_cliente" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{54378415-E522-455A-9505-1E13203AD01F}" name="logradouro" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{0E6CD790-D796-4003-8B95-0A5C9F9C1B2F}" name="numero" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{F6978E98-5945-4867-AC61-0F25E859B6A3}" name="complemento" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{4A8D4879-B2DE-4415-87CE-5351A2430639}" name="bairro" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{0F18A217-6E1D-4700-AA01-D345312A4BF4}" name="cidade" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{2F839CBD-7306-42C9-8B25-92998D61AFEF}" name="UF" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{7D303E6A-EE0B-4AF2-9243-E6D12713CF83}" name="CEP" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E2DA3E75-59D1-4A19-BFD9-ACF7B3FAB5E1}" name="Tabela4" displayName="Tabela4" ref="A28:E33" totalsRowShown="0" headerRowDxfId="32" dataDxfId="46" headerRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E2DA3E75-59D1-4A19-BFD9-ACF7B3FAB5E1}" name="Tabela4" displayName="Tabela4" ref="A28:E33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="35" headerRowBorderDxfId="36">
   <autoFilter ref="A28:E33" xr:uid="{E2DA3E75-59D1-4A19-BFD9-ACF7B3FAB5E1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2031,65 +2400,83 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5A52B891-BEBC-436D-9340-19AF3CB4F66F}" name="id_livro" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{EE93EA49-A1F5-4CCF-8B7E-D019042E87CB}" name="nome" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A1E540D2-CCA2-46A0-A9F6-508EF958DA11}" name="nome_autor" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{A8F690B9-DF79-4A0B-AE87-C361D36CF69E}" name="assunto" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{74C490E4-4F94-4487-9E5C-39979D907282}" name="ISBN" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{5A52B891-BEBC-436D-9340-19AF3CB4F66F}" name="id_livro" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{EE93EA49-A1F5-4CCF-8B7E-D019042E87CB}" name="nome" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A1E540D2-CCA2-46A0-A9F6-508EF958DA11}" name="assunto" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A8F690B9-DF79-4A0B-AE87-C361D36CF69E}" name="ISBN" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{BEB6EDC8-5A9E-42A0-A180-448478152311}" name="id_autor" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8F60424F-7253-424B-B54F-D092D098481C}" name="Tabela5" displayName="Tabela5" ref="A36:B41" totalsRowShown="0" headerRowDxfId="29" dataDxfId="31" headerRowBorderDxfId="30">
-  <autoFilter ref="A36:B41" xr:uid="{8F60424F-7253-424B-B54F-D092D098481C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8F60424F-7253-424B-B54F-D092D098481C}" name="Tabela5" displayName="Tabela5" ref="A43:B48" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33">
+  <autoFilter ref="A43:B48" xr:uid="{8F60424F-7253-424B-B54F-D092D098481C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C1E6D168-D9A5-4875-B00C-2D6381E5448B}" name="id_compra" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{7D36314D-85A1-4667-BCC9-57F719A477A7}" name="data" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{C1E6D168-D9A5-4875-B00C-2D6381E5448B}" name="id_compra" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{7D36314D-85A1-4667-BCC9-57F719A477A7}" name="data" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E42B638C-6AAA-4C46-BCFA-52E30656B4EF}" name="Tabela6" displayName="Tabela6" ref="A44:E49" totalsRowShown="0" headerRowDxfId="26" dataDxfId="28" headerRowBorderDxfId="27">
-  <autoFilter ref="A44:E49" xr:uid="{E42B638C-6AAA-4C46-BCFA-52E30656B4EF}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E42B638C-6AAA-4C46-BCFA-52E30656B4EF}" name="Tabela6" displayName="Tabela6" ref="A51:F56" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28">
+  <autoFilter ref="A51:F56" xr:uid="{E42B638C-6AAA-4C46-BCFA-52E30656B4EF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{947164C7-9E4F-40C7-AAE3-FC16A0100203}" name="id_editora" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{362B3C8D-8B8A-4939-83F2-6A15B82C0717}" name="nome" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9AA8DED8-CA50-4F84-8B7F-8AC8F5A4C621}" name="telefone" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{1DD25990-9651-432B-AB1A-727414EF6BE3}" name="email" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3EFD81CE-A4DB-4C15-B8E3-EE96DDEAC74E}" name="gerente" dataDxfId="24"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{947164C7-9E4F-40C7-AAE3-FC16A0100203}" name="id_editora" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{362B3C8D-8B8A-4939-83F2-6A15B82C0717}" name="nome" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{9AA8DED8-CA50-4F84-8B7F-8AC8F5A4C621}" name="endereco" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{1DD25990-9651-432B-AB1A-727414EF6BE3}" name="telefone" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{3EFD81CE-A4DB-4C15-B8E3-EE96DDEAC74E}" name="email" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{1455E49F-F5E2-4323-9B13-89D5F6B90868}" name="gerente" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{60222AA1-47E1-450F-8614-F30C8A638968}" name="Tabela7" displayName="Tabela7" ref="A52:D57" totalsRowShown="0" headerRowDxfId="18" dataDxfId="25" headerRowBorderDxfId="19">
-  <autoFilter ref="A52:D57" xr:uid="{60222AA1-47E1-450F-8614-F30C8A638968}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{60222AA1-47E1-450F-8614-F30C8A638968}" name="Tabela7" displayName="Tabela7" ref="A59:D64" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25">
+  <autoFilter ref="A59:D64" xr:uid="{60222AA1-47E1-450F-8614-F30C8A638968}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DEA8F65E-9DDE-4357-B836-F3E07231914F}" name="id_estoquie" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{8231D7D2-7150-41F6-885B-2D82D8E79313}" name="total_estoque" dataDxfId="0">
-      <calculatedColumnFormula>SUM(C53,-D53)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{DEA8F65E-9DDE-4357-B836-F3E07231914F}" name="id_estoque" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{8231D7D2-7150-41F6-885B-2D82D8E79313}" name="total_estoque" dataDxfId="22">
+      <calculatedColumnFormula>SUM(C60,-D60)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B4EE6D5C-33D8-4C51-9C83-360FAD07E917}" name="entrada" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{A3A1E21E-F522-44AC-9BF4-390829F0B706}" name="saída" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B4EE6D5C-33D8-4C51-9C83-360FAD07E917}" name="entrada" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{A3A1E21E-F522-44AC-9BF4-390829F0B706}" name="saída" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9D5DCD97-C2E7-4CE0-9625-8DEB4F707696}" name="Tabela8" displayName="Tabela8" ref="A36:C40" totalsRowShown="0" headerRowDxfId="17" dataDxfId="19" headerRowBorderDxfId="18">
+  <autoFilter ref="A36:C40" xr:uid="{9D5DCD97-C2E7-4CE0-9625-8DEB4F707696}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0C6EEA01-07C7-475E-ABBE-F526ABA65F6A}" name="id_autor" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{2E66A764-81BE-4CB9-A077-3D06AAFC222E}" name="nome" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B73B3015-8875-4C48-A891-5CDC56A59660}" name="nacionalidade" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2392,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B8CCE-35DB-438B-8626-298111B37E03}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2800,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2429,6 +2816,8 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2440,6 +2829,12 @@
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -2451,6 +2846,12 @@
       <c r="C5" s="2">
         <v>12345678910</v>
       </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -2462,6 +2863,12 @@
       <c r="C6" s="2">
         <v>98765432101</v>
       </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2473,6 +2880,12 @@
       <c r="C7" s="2">
         <v>45678912398</v>
       </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2484,6 +2897,12 @@
       <c r="C8" s="2">
         <v>78912345632</v>
       </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2495,6 +2914,12 @@
       <c r="C9" s="2">
         <v>75315985219</v>
       </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2571,7 +2996,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2638,23 +3063,23 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2662,23 +3087,23 @@
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,23 +3111,23 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2">
         <v>44</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2710,28 +3135,28 @@
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2">
         <v>7896</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2752,7 +3177,7 @@
         <v>34</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2760,16 +3185,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>72</v>
+      <c r="E29" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2780,13 +3205,13 @@
         <v>1984</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2794,16 +3219,16 @@
         <v>3</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>78</v>
+      <c r="E31" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2811,16 +3236,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2828,284 +3253,387 @@
         <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E33" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1</v>
       </c>
-      <c r="B37" s="7">
-        <v>45354</v>
-      </c>
+      <c r="B37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2</v>
       </c>
-      <c r="B38" s="7">
-        <v>45519</v>
-      </c>
+      <c r="B38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>3</v>
       </c>
-      <c r="B39" s="7">
-        <v>45561</v>
-      </c>
+      <c r="B39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>4</v>
       </c>
-      <c r="B40" s="7">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>5</v>
-      </c>
-      <c r="B41" s="7">
-        <v>45599</v>
-      </c>
+      <c r="B40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="A43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>44</v>
+      <c r="B44" s="7">
+        <v>45354</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="2">
-        <v>3906816118</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="B45" s="7">
+        <v>45519</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>2</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1965513922</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45561</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>3</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="2">
-        <v>2294761305</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>4</v>
+      </c>
+      <c r="B47" s="7">
+        <v>45566</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
+        <v>5</v>
+      </c>
+      <c r="B48" s="7">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="16">
+        <v>3906816118</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>2</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1965513922</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="16">
+        <v>2294761305</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>4</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="16">
+        <v>9354842200</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="2">
-        <v>9354842200</v>
-      </c>
-      <c r="D48" s="8" t="s">
+      <c r="F55" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="16">
+        <v>2563600219</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>5</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="2">
-        <v>2563600219</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="F56" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>1</v>
       </c>
-      <c r="B53" s="2">
-        <f t="shared" ref="B53:B57" si="0">SUM(C53,-D53)</f>
+      <c r="B60" s="2">
+        <f t="shared" ref="B60:B64" si="0">SUM(C60,-D60)</f>
         <v>6</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C60" s="2">
         <v>13</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D60" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>2</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C61" s="2">
         <v>15</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D61" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>3</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C62" s="2">
         <v>22</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D62" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>4</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C63" s="2">
         <v>33</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D63" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>5</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C64" s="2">
         <v>67</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D64" s="2">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="7">
+  <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -3113,6 +3641,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>